--- a/POJ_Python/doc/Python学习方法.xlsx
+++ b/POJ_Python/doc/Python学习方法.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="学习方法" sheetId="1" r:id="rId1"/>
     <sheet name="开发环境" sheetId="4" r:id="rId2"/>
+    <sheet name="安装" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -435,6 +436,381 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208753</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>151910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="76200"/>
+          <a:ext cx="6380953" cy="3923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="2400300"/>
+          <a:ext cx="4410075" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208753</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>151910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="4191000"/>
+          <a:ext cx="6380953" cy="3923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208753</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>151910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="8305800"/>
+          <a:ext cx="6380953" cy="3923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208753</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>151910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="12592050"/>
+          <a:ext cx="6380953" cy="3923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="7724775"/>
+          <a:ext cx="809625" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="11849100"/>
+          <a:ext cx="847725" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208753</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>151910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="16878300"/>
+          <a:ext cx="6380953" cy="3923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -843,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
@@ -856,4 +1232,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>